--- a/Gas_current.xlsx
+++ b/Gas_current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Information Management\Info Sharing and Tracking\Product Services\Operations\Product Creation\ST3\ST3s_Report_Prep\All_Pages_Content_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E401DA-4241-440D-B1B4-01C2E5941BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86DDF4B-E399-48CC-AF34-D834F89430A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="20544" windowHeight="11400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="1560" windowWidth="21600" windowHeight="9105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="20" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="214">
   <si>
     <t>Saskatchewan</t>
   </si>
@@ -730,13 +730,13 @@
     <t xml:space="preserve">              The opening and closing inventory volumes for natural gas are submitted voluntarily to the AER and are not a requirement (those licensees are regulated by NEB). Therefore, they do not reflect the actual amount.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Run Date:  27 February 2025</t>
+    <t/>
   </si>
   <si>
     <t>2025</t>
   </si>
   <si>
-    <t/>
+    <t xml:space="preserve"> Run Date:  28 May 2025</t>
   </si>
 </sst>
 </file>
@@ -744,10 +744,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -1097,7 +1097,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="103">
@@ -1113,19 +1113,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
@@ -1135,28 +1135,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1224,13 +1224,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1239,7 +1239,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1247,7 +1247,7 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1266,21 +1266,21 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1303,16 +1303,16 @@
     <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1409,7 +1409,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1676400</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>30751</xdr:rowOff>
+      <xdr:rowOff>33926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1745,27 +1745,27 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" customWidth="1"/>
-    <col min="4" max="7" width="14.5546875" customWidth="1"/>
-    <col min="8" max="10" width="16.44140625" customWidth="1"/>
-    <col min="11" max="15" width="14.5546875" customWidth="1"/>
-    <col min="16" max="16" width="1.5546875" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" customWidth="1"/>
+    <col min="4" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="15" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="1.5703125" customWidth="1"/>
     <col min="17" max="17" width="17" customWidth="1"/>
-    <col min="18" max="18" width="14.5546875" customWidth="1"/>
-    <col min="20" max="20" width="10.44140625" customWidth="1"/>
-    <col min="21" max="21" width="18.44140625" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
-    <col min="23" max="23" width="19.44140625" customWidth="1"/>
-    <col min="24" max="24" width="23.6640625" customWidth="1"/>
-    <col min="25" max="25" width="6.6640625" customWidth="1"/>
-    <col min="26" max="26" width="9.88671875" customWidth="1"/>
+    <col min="23" max="23" width="19.42578125" customWidth="1"/>
+    <col min="24" max="24" width="23.7109375" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" customWidth="1"/>
+    <col min="26" max="26" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:61" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
@@ -1812,7 +1812,7 @@
       <c r="BH1"/>
       <c r="BI1"/>
     </row>
-    <row r="2" spans="1:61" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:61" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H2" s="50"/>
       <c r="I2" s="67" t="s">
         <v>25</v>
@@ -1867,7 +1867,7 @@
       <c r="BH2"/>
       <c r="BI2"/>
     </row>
-    <row r="3" spans="1:61" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:61" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H3" s="100" t="s">
         <v>204</v>
       </c>
@@ -1922,7 +1922,7 @@
       <c r="BH3"/>
       <c r="BI3"/>
     </row>
-    <row r="4" spans="1:61" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:61" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="68" t="s">
         <v>205</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:61" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="69"/>
       <c r="C5" s="4"/>
       <c r="D5" s="3" t="s">
@@ -1990,13 +1990,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:61" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:61" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="70" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="31"/>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="71" t="s">
         <v>168</v>
@@ -2022,7 +2022,7 @@
       <c r="R7" s="34"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="72"/>
       <c r="D8" s="25"/>
@@ -2040,7 +2040,7 @@
       <c r="P8" s="33"/>
       <c r="Q8" s="33"/>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="71" t="s">
         <v>125</v>
@@ -2058,7 +2058,7 @@
       <c r="AB9" s="53"/>
       <c r="AC9" s="54"/>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B10" s="73" t="s">
         <v>45</v>
       </c>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="AC10" s="56"/>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B11" s="73" t="s">
         <v>60</v>
       </c>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="AC11" s="56"/>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B12" s="73"/>
       <c r="C12" s="13"/>
       <c r="D12" s="24"/>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="AC12" s="56"/>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B13" s="73" t="s">
         <v>46</v>
       </c>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="AC13" s="56"/>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B14" s="73" t="s">
         <v>47</v>
       </c>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="AC14" s="56"/>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B15" s="73" t="s">
         <v>49</v>
       </c>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="AC15" s="56"/>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B16" s="73" t="s">
         <v>50</v>
       </c>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="AC16" s="56"/>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B17" s="73"/>
       <c r="C17" s="13"/>
       <c r="D17" s="24"/>
@@ -2334,7 +2334,7 @@
       <c r="T17" s="57"/>
       <c r="AC17" s="56"/>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B18" s="73" t="s">
         <v>196</v>
       </c>
@@ -2358,7 +2358,7 @@
       <c r="T18" s="57"/>
       <c r="AC18" s="56"/>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19" s="73"/>
       <c r="C19" s="13"/>
       <c r="D19" s="88"/>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="AC19" s="56"/>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B20" s="73" t="s">
         <v>51</v>
       </c>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="AC20" s="56"/>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21" s="73" t="s">
         <v>48</v>
       </c>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="AC21" s="56"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22" s="74" t="s">
         <v>126</v>
       </c>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="AC22" s="56"/>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
       <c r="D23" s="25"/>
       <c r="T23" s="57">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="AC23" s="56"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B24" s="74" t="s">
         <v>127</v>
       </c>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="AC24" s="56"/>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25" s="73" t="s">
         <v>56</v>
       </c>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="AC25" s="56"/>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26" s="73" t="s">
         <v>67</v>
       </c>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="AC26" s="56"/>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27" s="73" t="s">
         <v>73</v>
       </c>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="AC27" s="56"/>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B28" s="73" t="s">
         <v>70</v>
       </c>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="AC28" s="56"/>
     </row>
-    <row r="29" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="73" t="s">
         <v>69</v>
       </c>
@@ -2632,7 +2632,7 @@
       <c r="AB29" s="59"/>
       <c r="AC29" s="60"/>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B30" s="73" t="s">
         <v>68</v>
       </c>
@@ -2653,7 +2653,7 @@
       <c r="O30" s="27"/>
       <c r="Q30" s="27"/>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B31" s="74" t="s">
         <v>128</v>
       </c>
@@ -2662,12 +2662,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B32" s="74"/>
       <c r="C32" s="14"/>
       <c r="D32" s="25"/>
     </row>
-    <row r="33" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33" s="71" t="s">
         <v>129</v>
@@ -2676,7 +2676,7 @@
       <c r="D33"/>
       <c r="T33"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B34" s="73" t="s">
         <v>38</v>
       </c>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B35" s="73" t="s">
         <v>39</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B36" s="73" t="s">
         <v>40</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B37" s="73" t="s">
         <v>33</v>
       </c>
@@ -2713,23 +2713,23 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B38" s="74" t="s">
         <v>130</v>
       </c>
       <c r="C38" s="14"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B39" s="74"/>
       <c r="C39" s="14"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B40" s="71" t="s">
         <v>57</v>
       </c>
       <c r="C40" s="14"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B41" s="73" t="s">
         <v>38</v>
       </c>
@@ -2751,7 +2751,7 @@
       <c r="Q41" s="36"/>
       <c r="R41" s="34"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B42" s="73" t="s">
         <v>39</v>
       </c>
@@ -2772,7 +2772,7 @@
       <c r="P42" s="33"/>
       <c r="Q42" s="33"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B43" s="73" t="s">
         <v>40</v>
       </c>
@@ -2793,7 +2793,7 @@
       <c r="P43" s="37"/>
       <c r="Q43" s="37"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B44" s="73" t="s">
         <v>33</v>
       </c>
@@ -2814,7 +2814,7 @@
       <c r="P44" s="38"/>
       <c r="Q44" s="38"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B45" s="73" t="s">
         <v>54</v>
       </c>
@@ -2835,7 +2835,7 @@
       <c r="P45" s="33"/>
       <c r="Q45" s="33"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B46" s="74" t="s">
         <v>58</v>
       </c>
@@ -2854,10 +2854,10 @@
       <c r="P46" s="33"/>
       <c r="Q46" s="33"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B47" s="74"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B48" s="71" t="s">
         <v>169</v>
       </c>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="R48" s="34"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B49" s="71" t="s">
         <v>167</v>
       </c>
@@ -2904,7 +2904,7 @@
       <c r="P49" s="33"/>
       <c r="Q49" s="25"/>
     </row>
-    <row r="50" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="71"/>
       <c r="C50" s="13"/>
       <c r="D50" s="40"/>
@@ -2922,7 +2922,7 @@
       <c r="P50" s="33"/>
       <c r="Q50" s="40"/>
     </row>
-    <row r="51" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B51" s="75" t="s">
         <v>200</v>
       </c>
@@ -2944,7 +2944,7 @@
       <c r="P51" s="38"/>
       <c r="Q51" s="38"/>
     </row>
-    <row r="52" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="68" t="s">
         <v>205</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="69"/>
       <c r="C53" s="4"/>
       <c r="D53" s="90" t="s">
@@ -3009,7 +3009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B54" s="72" t="s">
         <v>37</v>
       </c>
@@ -3029,7 +3029,7 @@
       <c r="P54" s="33"/>
       <c r="Q54" s="33"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B55" s="71" t="s">
         <v>34</v>
       </c>
@@ -3049,7 +3049,7 @@
       <c r="P55" s="33"/>
       <c r="Q55" s="33"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B56" s="73" t="s">
         <v>26</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="73" t="s">
         <v>27</v>
@@ -3068,7 +3068,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B58" s="73" t="s">
         <v>59</v>
       </c>
@@ -3077,11 +3077,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B59" s="73"/>
       <c r="C59" s="13"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B60" s="73" t="s">
         <v>53</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B61" s="73" t="s">
         <v>71</v>
       </c>
@@ -3099,17 +3099,17 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B62" s="73"/>
       <c r="C62" s="13"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B63" s="73" t="s">
         <v>72</v>
       </c>
       <c r="C63" s="15"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B64" s="76" t="s">
         <v>41</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" s="76" t="s">
         <v>42</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66" s="76" t="s">
         <v>44</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" s="76" t="s">
         <v>43</v>
       </c>
@@ -3157,7 +3157,7 @@
       <c r="O67" s="27"/>
       <c r="Q67" s="27"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68" s="73" t="s">
         <v>52</v>
       </c>
@@ -3179,17 +3179,17 @@
       <c r="P68" s="33"/>
       <c r="Q68" s="33"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" s="77"/>
       <c r="C69" s="15"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="73" t="s">
         <v>62</v>
       </c>
       <c r="C70" s="13"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="76" t="s">
         <v>61</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" s="76" t="s">
         <v>38</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73" s="76" t="s">
         <v>39</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74" s="76" t="s">
         <v>40</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="O74" s="27"/>
       <c r="Q74" s="27"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75" s="73" t="s">
         <v>63</v>
       </c>
@@ -3259,17 +3259,17 @@
       <c r="P75" s="33"/>
       <c r="Q75" s="33"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" s="77"/>
       <c r="C76" s="15"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="73" t="s">
         <v>64</v>
       </c>
       <c r="C77" s="13"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="76" t="s">
         <v>38</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B79" s="76" t="s">
         <v>39</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80" s="76" t="s">
         <v>66</v>
       </c>
@@ -3308,7 +3308,7 @@
       <c r="O80" s="27"/>
       <c r="Q80" s="27"/>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B81" s="73" t="s">
         <v>65</v>
       </c>
@@ -3330,7 +3330,7 @@
       <c r="P81" s="33"/>
       <c r="Q81" s="33"/>
     </row>
-    <row r="82" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="77"/>
       <c r="C82" s="15"/>
       <c r="D82" s="49"/>
@@ -3347,7 +3347,7 @@
       <c r="O82" s="49"/>
       <c r="Q82" s="49"/>
     </row>
-    <row r="83" spans="2:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B83" s="74" t="s">
         <v>35</v>
       </c>
@@ -3369,17 +3369,17 @@
       <c r="P83" s="33"/>
       <c r="Q83" s="33"/>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B84" s="78"/>
       <c r="C84" s="13"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B85" s="71" t="s">
         <v>171</v>
       </c>
       <c r="C85" s="14"/>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B86" s="73" t="s">
         <v>5</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="H86" s="32"/>
       <c r="I86" s="32"/>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B87" s="73" t="s">
         <v>0</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B88" s="73" t="s">
         <v>1</v>
       </c>
@@ -3419,7 +3419,7 @@
       <c r="P88" s="33"/>
       <c r="Q88" s="33"/>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B89" s="73" t="s">
         <v>2</v>
       </c>
@@ -3441,7 +3441,7 @@
       <c r="P89" s="33"/>
       <c r="Q89" s="33"/>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B90" s="73" t="s">
         <v>3</v>
       </c>
@@ -3463,7 +3463,7 @@
       <c r="P90" s="33"/>
       <c r="Q90" s="33"/>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B91" s="73" t="s">
         <v>4</v>
       </c>
@@ -3485,7 +3485,7 @@
       <c r="P91" s="33"/>
       <c r="Q91" s="33"/>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B92" s="73" t="s">
         <v>55</v>
       </c>
@@ -3507,7 +3507,7 @@
       <c r="P92" s="33"/>
       <c r="Q92" s="43"/>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B93" s="74" t="s">
         <v>172</v>
       </c>
@@ -3529,7 +3529,7 @@
       <c r="P93" s="33"/>
       <c r="Q93" s="33"/>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B94" s="78"/>
       <c r="C94" s="13"/>
       <c r="D94" s="25"/>
@@ -3547,7 +3547,7 @@
       <c r="P94" s="33"/>
       <c r="Q94" s="33"/>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B95" s="79" t="s">
         <v>173</v>
       </c>
@@ -3567,7 +3567,7 @@
       <c r="P95" s="33"/>
       <c r="Q95" s="33"/>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B96" s="80" t="s">
         <v>28</v>
       </c>
@@ -3588,7 +3588,7 @@
       <c r="P96" s="46"/>
       <c r="Q96" s="46"/>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B97" s="80" t="s">
         <v>29</v>
       </c>
@@ -3610,7 +3610,7 @@
       <c r="P97" s="46"/>
       <c r="Q97" s="46"/>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B98" s="80" t="s">
         <v>30</v>
       </c>
@@ -3632,7 +3632,7 @@
       <c r="P98" s="46"/>
       <c r="Q98" s="46"/>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B99" s="80" t="s">
         <v>31</v>
       </c>
@@ -3654,7 +3654,7 @@
       <c r="P99" s="33"/>
       <c r="Q99" s="33"/>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B100" s="80" t="s">
         <v>32</v>
       </c>
@@ -3676,7 +3676,7 @@
       <c r="P100" s="33"/>
       <c r="Q100" s="43"/>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B101" s="81" t="s">
         <v>174</v>
       </c>
@@ -3698,7 +3698,7 @@
       <c r="P101" s="33"/>
       <c r="Q101" s="33"/>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B102" s="82"/>
       <c r="C102" s="45"/>
       <c r="D102" s="25"/>
@@ -3716,7 +3716,7 @@
       <c r="P102" s="33"/>
       <c r="Q102" s="33"/>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B103" s="81" t="s">
         <v>170</v>
       </c>
@@ -3738,7 +3738,7 @@
       <c r="P103" s="33"/>
       <c r="Q103" s="33"/>
     </row>
-    <row r="104" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="68" t="s">
         <v>206</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="69"/>
       <c r="C105" s="4"/>
       <c r="D105" s="90" t="s">
@@ -3803,7 +3803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="69"/>
       <c r="C106" s="4"/>
       <c r="D106" s="92"/>
@@ -3821,7 +3821,7 @@
       <c r="P106" s="61"/>
       <c r="Q106" s="61"/>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B107" s="79" t="s">
         <v>165</v>
       </c>
@@ -3843,7 +3843,7 @@
       <c r="P107" s="33"/>
       <c r="Q107" s="33"/>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B108" s="83" t="s">
         <v>201</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B109" s="84"/>
       <c r="C109" s="41"/>
       <c r="D109" s="25"/>
@@ -3885,7 +3885,7 @@
       <c r="P109" s="33"/>
       <c r="Q109" s="33"/>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B110" s="79" t="s">
         <v>6</v>
       </c>
@@ -3907,7 +3907,7 @@
       <c r="P110" s="48"/>
       <c r="Q110" s="48"/>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B111" s="85" t="s">
         <v>166</v>
       </c>
@@ -3929,7 +3929,7 @@
       <c r="P111" s="33"/>
       <c r="Q111" s="33"/>
     </row>
-    <row r="112" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="71"/>
       <c r="C112" s="44"/>
       <c r="D112" s="49"/>
@@ -3946,7 +3946,7 @@
       <c r="O112" s="49"/>
       <c r="Q112" s="49"/>
     </row>
-    <row r="113" spans="2:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B113" s="86" t="s">
         <v>202</v>
       </c>
@@ -3968,23 +3968,23 @@
       <c r="P113" s="38"/>
       <c r="Q113" s="38"/>
     </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B114" s="71"/>
     </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B115" s="71"/>
     </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B116" s="87" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B117" s="87" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B118" s="87" t="s">
         <v>210</v>
       </c>
@@ -4013,20 +4013,20 @@
       <selection activeCell="B4" sqref="B4:Q117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" customWidth="1"/>
-    <col min="4" max="15" width="15.6640625" customWidth="1"/>
-    <col min="16" max="16" width="1.5546875" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" customWidth="1"/>
+    <col min="4" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="1.5703125" customWidth="1"/>
     <col min="17" max="17" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q1"/>
     </row>
-    <row r="2" spans="2:17" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:17" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H2" s="50"/>
       <c r="I2" s="67" t="s">
         <v>25</v>
@@ -4034,7 +4034,7 @@
       <c r="J2" s="51"/>
       <c r="Q2"/>
     </row>
-    <row r="3" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H3" s="100" t="s">
         <v>204</v>
       </c>
@@ -4042,9 +4042,9 @@
       <c r="J3" s="102"/>
       <c r="Q3"/>
     </row>
-    <row r="4" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="93" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="2"/>
@@ -4064,7 +4064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="69"/>
       <c r="C5" s="4"/>
       <c r="D5" s="3" t="s">
@@ -4108,13 +4108,13 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="72" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="71" t="s">
         <v>168</v>
       </c>
@@ -4123,13 +4123,13 @@
         <v>601778.1</v>
       </c>
       <c r="E7" s="11">
-        <v>0</v>
+        <v>576310.1</v>
       </c>
       <c r="F7" s="11">
-        <v>0</v>
+        <v>597596</v>
       </c>
       <c r="G7" s="11">
-        <v>0</v>
+        <v>602088.4</v>
       </c>
       <c r="H7" s="11">
         <v>0</v>
@@ -4160,11 +4160,11 @@
         <v>601778.1</v>
       </c>
     </row>
-    <row r="8" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="72"/>
       <c r="C8" s="17"/>
     </row>
-    <row r="9" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="71" t="s">
         <v>125</v>
       </c>
@@ -4184,22 +4184,22 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="73" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="11">
-        <v>11600559.300000001</v>
+        <v>11601396.4</v>
       </c>
       <c r="E10" s="11">
-        <v>0</v>
+        <v>10227187.800000001</v>
       </c>
       <c r="F10" s="11">
-        <v>0</v>
+        <v>11696844.1</v>
       </c>
       <c r="G10" s="11">
-        <v>0</v>
+        <v>11238023.1</v>
       </c>
       <c r="H10" s="11">
         <v>0</v>
@@ -4227,25 +4227,25 @@
       </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="6">
-        <v>11600559.300000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+        <v>44763451.400000006</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="73" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="11">
-        <v>355807</v>
+        <v>355873.6</v>
       </c>
       <c r="E11" s="11">
-        <v>0</v>
+        <v>311583.8</v>
       </c>
       <c r="F11" s="11">
-        <v>0</v>
+        <v>339128.7</v>
       </c>
       <c r="G11" s="11">
-        <v>0</v>
+        <v>297582.5</v>
       </c>
       <c r="H11" s="11">
         <v>0</v>
@@ -4273,10 +4273,10 @@
       </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="6">
-        <v>355807</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+        <v>1304168.5999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="73"/>
       <c r="C12" s="13"/>
       <c r="D12" s="11"/>
@@ -4294,7 +4294,7 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="73" t="s">
         <v>46</v>
       </c>
@@ -4303,13 +4303,13 @@
         <v>1253348.3</v>
       </c>
       <c r="E13" s="11">
-        <v>0</v>
+        <v>1728736.5</v>
       </c>
       <c r="F13" s="11">
-        <v>0</v>
+        <v>539355.9</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>133377.70000000001</v>
       </c>
       <c r="H13" s="11">
         <v>0</v>
@@ -4337,10 +4337,10 @@
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6">
-        <v>1253348.3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+        <v>3654818.4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="73" t="s">
         <v>47</v>
       </c>
@@ -4349,13 +4349,13 @@
         <v>-7209</v>
       </c>
       <c r="E14" s="11">
-        <v>0</v>
+        <v>-16058.9</v>
       </c>
       <c r="F14" s="11">
-        <v>0</v>
+        <v>-58633.7</v>
       </c>
       <c r="G14" s="11">
-        <v>0</v>
+        <v>-797789.3</v>
       </c>
       <c r="H14" s="11">
         <v>0</v>
@@ -4383,25 +4383,25 @@
       </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="6">
-        <v>-7209</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+        <v>-879690.9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="73" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="11">
-        <v>1013.2</v>
+        <v>1013.1</v>
       </c>
       <c r="E15" s="11">
-        <v>0</v>
+        <v>1032.0999999999999</v>
       </c>
       <c r="F15" s="11">
-        <v>0</v>
+        <v>1227.2</v>
       </c>
       <c r="G15" s="11">
-        <v>0</v>
+        <v>861.7</v>
       </c>
       <c r="H15" s="11">
         <v>0</v>
@@ -4429,10 +4429,10 @@
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6">
-        <v>1013.2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+        <v>4134.0999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="73" t="s">
         <v>50</v>
       </c>
@@ -4441,13 +4441,13 @@
         <v>-8508.1</v>
       </c>
       <c r="E16" s="11">
-        <v>0</v>
+        <v>-9018.7000000000007</v>
       </c>
       <c r="F16" s="11">
-        <v>0</v>
+        <v>-10576.2</v>
       </c>
       <c r="G16" s="11">
-        <v>0</v>
+        <v>-11193.9</v>
       </c>
       <c r="H16" s="11">
         <v>0</v>
@@ -4475,10 +4475,10 @@
       </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="6">
-        <v>-8508.1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+        <v>-39296.9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="73"/>
       <c r="C17" s="13"/>
       <c r="D17" s="9"/>
@@ -4496,22 +4496,22 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="73" t="s">
         <v>196</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="11">
-        <v>13195010.700000001</v>
+        <v>13195914.300000001</v>
       </c>
       <c r="E18" s="11">
-        <v>0</v>
+        <v>12243462.600000001</v>
       </c>
       <c r="F18" s="11">
-        <v>0</v>
+        <v>12507346</v>
       </c>
       <c r="G18" s="11">
-        <v>0</v>
+        <v>10860861.799999997</v>
       </c>
       <c r="H18" s="11">
         <v>0</v>
@@ -4539,10 +4539,10 @@
       </c>
       <c r="P18" s="6"/>
       <c r="Q18" s="11">
-        <v>13195010.700000001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+        <v>48807584.70000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="73"/>
       <c r="C19" s="13"/>
       <c r="D19" s="11"/>
@@ -4560,22 +4560,22 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="73" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="11">
-        <v>573812.5</v>
+        <v>573865.30000000005</v>
       </c>
       <c r="E20" s="11">
-        <v>0</v>
+        <v>484699.1</v>
       </c>
       <c r="F20" s="11">
-        <v>0</v>
+        <v>548983.30000000005</v>
       </c>
       <c r="G20" s="11">
-        <v>0</v>
+        <v>476709.3</v>
       </c>
       <c r="H20" s="11">
         <v>0</v>
@@ -4603,10 +4603,10 @@
       </c>
       <c r="P20" s="6"/>
       <c r="Q20" s="6">
-        <v>573812.5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+        <v>2084257</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="73" t="s">
         <v>48</v>
       </c>
@@ -4615,13 +4615,13 @@
         <v>360027.1</v>
       </c>
       <c r="E21" s="9">
-        <v>0</v>
+        <v>323705.59999999998</v>
       </c>
       <c r="F21" s="9">
-        <v>0</v>
+        <v>362856.2</v>
       </c>
       <c r="G21" s="9">
-        <v>0</v>
+        <v>353772.79999999999</v>
       </c>
       <c r="H21" s="9">
         <v>0</v>
@@ -4649,25 +4649,25 @@
       </c>
       <c r="P21" s="6"/>
       <c r="Q21" s="7">
-        <v>360027.1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+        <v>1400361.7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="74" t="s">
         <v>126</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="11">
-        <v>14128850.300000001</v>
+        <v>14129806.700000001</v>
       </c>
       <c r="E22" s="11">
-        <v>0</v>
+        <v>13051867.300000001</v>
       </c>
       <c r="F22" s="11">
-        <v>0</v>
+        <v>13419185.5</v>
       </c>
       <c r="G22" s="11">
-        <v>0</v>
+        <v>11691343.899999999</v>
       </c>
       <c r="H22" s="11">
         <v>0</v>
@@ -4695,10 +4695,10 @@
       </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="11">
-        <v>14128850.300000001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+        <v>52292203.400000013</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="74"/>
       <c r="C23" s="14"/>
       <c r="D23" s="11"/>
@@ -4716,7 +4716,7 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="11"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="74" t="s">
         <v>127</v>
       </c>
@@ -4736,22 +4736,22 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="73" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="11">
-        <v>876.1</v>
+        <v>881.3</v>
       </c>
       <c r="E25" s="11">
-        <v>0</v>
+        <v>619.29999999999995</v>
       </c>
       <c r="F25" s="11">
-        <v>0</v>
+        <v>761.9</v>
       </c>
       <c r="G25" s="11">
-        <v>0</v>
+        <v>721</v>
       </c>
       <c r="H25" s="11">
         <v>0</v>
@@ -4779,10 +4779,10 @@
       </c>
       <c r="P25" s="6"/>
       <c r="Q25" s="6">
-        <v>876.1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+        <v>2983.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="73" t="s">
         <v>67</v>
       </c>
@@ -4791,13 +4791,13 @@
         <v>52224</v>
       </c>
       <c r="E26" s="11">
-        <v>0</v>
+        <v>46808.800000000003</v>
       </c>
       <c r="F26" s="11">
-        <v>0</v>
+        <v>51369.5</v>
       </c>
       <c r="G26" s="11">
-        <v>0</v>
+        <v>47223.7</v>
       </c>
       <c r="H26" s="11">
         <v>0</v>
@@ -4825,10 +4825,10 @@
       </c>
       <c r="P26" s="6"/>
       <c r="Q26" s="6">
-        <v>52224</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+        <v>197626</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="73" t="s">
         <v>73</v>
       </c>
@@ -4837,13 +4837,13 @@
         <v>259983.7</v>
       </c>
       <c r="E27" s="11">
-        <v>0</v>
+        <v>238238.1</v>
       </c>
       <c r="F27" s="11">
-        <v>0</v>
+        <v>274520</v>
       </c>
       <c r="G27" s="11">
-        <v>0</v>
+        <v>238031.9</v>
       </c>
       <c r="H27" s="11">
         <v>0</v>
@@ -4871,25 +4871,25 @@
       </c>
       <c r="P27" s="6"/>
       <c r="Q27" s="6">
-        <v>259983.7</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+        <v>1010773.7000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="73" t="s">
         <v>70</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="11">
-        <v>531290.19999999995</v>
+        <v>624080.1</v>
       </c>
       <c r="E28" s="11">
-        <v>0</v>
+        <v>587016.80000000005</v>
       </c>
       <c r="F28" s="11">
-        <v>0</v>
+        <v>620929.69999999995</v>
       </c>
       <c r="G28" s="11">
-        <v>0</v>
+        <v>529726.1</v>
       </c>
       <c r="H28" s="11">
         <v>0</v>
@@ -4917,25 +4917,25 @@
       </c>
       <c r="P28" s="6"/>
       <c r="Q28" s="6">
-        <v>531290.19999999995</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+        <v>2361752.6999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="73" t="s">
         <v>69</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="11">
-        <v>133969.4</v>
+        <v>134379.70000000001</v>
       </c>
       <c r="E29" s="11">
-        <v>0</v>
+        <v>126016.4</v>
       </c>
       <c r="F29" s="11">
-        <v>0</v>
+        <v>134594.4</v>
       </c>
       <c r="G29" s="11">
-        <v>0</v>
+        <v>123308.3</v>
       </c>
       <c r="H29" s="11">
         <v>0</v>
@@ -4963,10 +4963,10 @@
       </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="6">
-        <v>133969.4</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+        <v>518298.8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="73" t="s">
         <v>68</v>
       </c>
@@ -4975,13 +4975,13 @@
         <v>4126716.8</v>
       </c>
       <c r="E30" s="9">
-        <v>0</v>
+        <v>3760163.6</v>
       </c>
       <c r="F30" s="9">
-        <v>0</v>
+        <v>3965865.7</v>
       </c>
       <c r="G30" s="9">
-        <v>0</v>
+        <v>3670384.2</v>
       </c>
       <c r="H30" s="9">
         <v>0</v>
@@ -5009,25 +5009,25 @@
       </c>
       <c r="P30" s="6"/>
       <c r="Q30" s="7">
-        <v>4126716.8</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+        <v>15523130.300000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="74" t="s">
         <v>128</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="11">
-        <v>5105060.2</v>
+        <v>5198265.5999999996</v>
       </c>
       <c r="E31" s="11">
-        <v>0</v>
+        <v>4758863</v>
       </c>
       <c r="F31" s="11">
-        <v>0</v>
+        <v>5048041.2</v>
       </c>
       <c r="G31" s="11">
-        <v>0</v>
+        <v>4609395.2</v>
       </c>
       <c r="H31" s="11">
         <v>0</v>
@@ -5055,10 +5055,10 @@
       </c>
       <c r="P31" s="6"/>
       <c r="Q31" s="11">
-        <v>5105060.2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+        <v>19614565</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="74"/>
       <c r="C32" s="14"/>
       <c r="D32" s="11"/>
@@ -5076,7 +5076,7 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="11"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="71" t="s">
         <v>129</v>
       </c>
@@ -5095,22 +5095,22 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="73" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="11">
-        <v>99122.4</v>
+        <v>96509.7</v>
       </c>
       <c r="E34" s="11">
-        <v>0</v>
+        <v>92069.8</v>
       </c>
       <c r="F34" s="11">
-        <v>0</v>
+        <v>96420.800000000003</v>
       </c>
       <c r="G34" s="11">
-        <v>0</v>
+        <v>93590.7</v>
       </c>
       <c r="H34" s="11">
         <v>0</v>
@@ -5138,25 +5138,25 @@
       </c>
       <c r="P34" s="6"/>
       <c r="Q34" s="6">
-        <v>99122.4</v>
-      </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+        <v>378591</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="73" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="11">
-        <v>764786</v>
+        <v>781443.1</v>
       </c>
       <c r="E35" s="11">
-        <v>0</v>
+        <v>705441.1</v>
       </c>
       <c r="F35" s="11">
-        <v>0</v>
+        <v>768966.1</v>
       </c>
       <c r="G35" s="11">
-        <v>0</v>
+        <v>703372.6</v>
       </c>
       <c r="H35" s="11">
         <v>0</v>
@@ -5184,25 +5184,25 @@
       </c>
       <c r="P35" s="6"/>
       <c r="Q35" s="6">
-        <v>764786</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+        <v>2959222.9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="73" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="11">
-        <v>24140.6</v>
+        <v>24142.799999999999</v>
       </c>
       <c r="E36" s="11">
-        <v>0</v>
+        <v>21029.7</v>
       </c>
       <c r="F36" s="11">
-        <v>0</v>
+        <v>23104.2</v>
       </c>
       <c r="G36" s="11">
-        <v>0</v>
+        <v>20333.2</v>
       </c>
       <c r="H36" s="11">
         <v>0</v>
@@ -5230,25 +5230,25 @@
       </c>
       <c r="P36" s="6"/>
       <c r="Q36" s="6">
-        <v>24140.6</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+        <v>88609.9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="73" t="s">
         <v>33</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="9">
-        <v>841877</v>
+        <v>834638.6</v>
       </c>
       <c r="E37" s="9">
-        <v>0</v>
+        <v>729093.7</v>
       </c>
       <c r="F37" s="9">
-        <v>0</v>
+        <v>833390.9</v>
       </c>
       <c r="G37" s="9">
-        <v>0</v>
+        <v>800966</v>
       </c>
       <c r="H37" s="9">
         <v>0</v>
@@ -5276,25 +5276,25 @@
       </c>
       <c r="P37" s="6"/>
       <c r="Q37" s="7">
-        <v>841877</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+        <v>3198089.1999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="74" t="s">
         <v>130</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="11">
-        <v>1729926</v>
+        <v>1736734.2</v>
       </c>
       <c r="E38" s="11">
-        <v>0</v>
+        <v>1547634.2999999998</v>
       </c>
       <c r="F38" s="11">
-        <v>0</v>
+        <v>1721882</v>
       </c>
       <c r="G38" s="11">
-        <v>0</v>
+        <v>1618262.5</v>
       </c>
       <c r="H38" s="11">
         <v>0</v>
@@ -5322,10 +5322,10 @@
       </c>
       <c r="P38" s="6"/>
       <c r="Q38" s="11">
-        <v>1729926</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+        <v>6624513</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="74"/>
       <c r="C39" s="14"/>
       <c r="D39" s="11"/>
@@ -5343,7 +5343,7 @@
       <c r="P39" s="6"/>
       <c r="Q39" s="11"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="71" t="s">
         <v>57</v>
       </c>
@@ -5362,22 +5362,22 @@
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="73" t="s">
         <v>38</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="11">
-        <v>3895.4</v>
+        <v>4129.2</v>
       </c>
       <c r="E41" s="11">
-        <v>0</v>
+        <v>3309.2</v>
       </c>
       <c r="F41" s="11">
-        <v>0</v>
+        <v>3668.3</v>
       </c>
       <c r="G41" s="11">
-        <v>0</v>
+        <v>3345.6</v>
       </c>
       <c r="H41" s="11">
         <v>0</v>
@@ -5405,25 +5405,25 @@
       </c>
       <c r="P41" s="6"/>
       <c r="Q41" s="6">
-        <v>3895.4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+        <v>14452.300000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="73" t="s">
         <v>39</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="11">
-        <v>179321.8</v>
+        <v>180027.2</v>
       </c>
       <c r="E42" s="11">
-        <v>0</v>
+        <v>163319.6</v>
       </c>
       <c r="F42" s="11">
-        <v>0</v>
+        <v>181560</v>
       </c>
       <c r="G42" s="11">
-        <v>0</v>
+        <v>167682.79999999999</v>
       </c>
       <c r="H42" s="11">
         <v>0</v>
@@ -5451,25 +5451,25 @@
       </c>
       <c r="P42" s="6"/>
       <c r="Q42" s="6">
-        <v>179321.8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
+        <v>692589.60000000009</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="73" t="s">
         <v>40</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="11">
-        <v>988.5</v>
+        <v>932.3</v>
       </c>
       <c r="E43" s="11">
-        <v>0</v>
+        <v>851.3</v>
       </c>
       <c r="F43" s="11">
-        <v>0</v>
+        <v>980.4</v>
       </c>
       <c r="G43" s="11">
-        <v>0</v>
+        <v>937.1</v>
       </c>
       <c r="H43" s="11">
         <v>0</v>
@@ -5497,10 +5497,10 @@
       </c>
       <c r="P43" s="6"/>
       <c r="Q43" s="6">
-        <v>988.5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+        <v>3701.1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="73" t="s">
         <v>33</v>
       </c>
@@ -5509,13 +5509,13 @@
         <v>309554</v>
       </c>
       <c r="E44" s="11">
-        <v>0</v>
+        <v>298816.2</v>
       </c>
       <c r="F44" s="11">
-        <v>0</v>
+        <v>343934.5</v>
       </c>
       <c r="G44" s="11">
-        <v>0</v>
+        <v>321985.90000000002</v>
       </c>
       <c r="H44" s="11">
         <v>0</v>
@@ -5543,10 +5543,10 @@
       </c>
       <c r="P44" s="6"/>
       <c r="Q44" s="6">
-        <v>309554</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+        <v>1274290.6000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="73" t="s">
         <v>54</v>
       </c>
@@ -5555,13 +5555,13 @@
         <v>2370.6</v>
       </c>
       <c r="E45" s="9">
-        <v>0</v>
+        <v>2420.4</v>
       </c>
       <c r="F45" s="9">
-        <v>0</v>
+        <v>2080.8000000000002</v>
       </c>
       <c r="G45" s="9">
-        <v>0</v>
+        <v>1733.7</v>
       </c>
       <c r="H45" s="9">
         <v>0</v>
@@ -5589,25 +5589,25 @@
       </c>
       <c r="P45" s="6"/>
       <c r="Q45" s="7">
-        <v>2370.6</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+        <v>8605.5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="74" t="s">
         <v>58</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="11">
-        <v>496130.29999999993</v>
+        <v>497013.3</v>
       </c>
       <c r="E46" s="11">
-        <v>0</v>
+        <v>468716.70000000007</v>
       </c>
       <c r="F46" s="11">
-        <v>0</v>
+        <v>532224</v>
       </c>
       <c r="G46" s="11">
-        <v>0</v>
+        <v>495685.10000000003</v>
       </c>
       <c r="H46" s="11">
         <v>0</v>
@@ -5635,13 +5635,13 @@
       </c>
       <c r="P46" s="6"/>
       <c r="Q46" s="11">
-        <v>496130.29999999993</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+        <v>1993639.1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="74"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="71" t="s">
         <v>169</v>
       </c>
@@ -5650,13 +5650,13 @@
         <v>576310.1</v>
       </c>
       <c r="E48" s="11">
-        <v>0</v>
+        <v>597596</v>
       </c>
       <c r="F48" s="11">
-        <v>0</v>
+        <v>602088.4</v>
       </c>
       <c r="G48" s="11">
-        <v>0</v>
+        <v>560422.40000000002</v>
       </c>
       <c r="H48" s="11">
         <v>0</v>
@@ -5684,25 +5684,25 @@
       </c>
       <c r="P48" s="6"/>
       <c r="Q48" s="63">
-        <v>576310.1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
+        <v>560422.40000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="71" t="s">
         <v>167</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="11">
-        <v>-83776</v>
+        <v>-94853.6</v>
       </c>
       <c r="E49" s="11">
-        <v>0</v>
+        <v>-115127.4</v>
       </c>
       <c r="F49" s="11">
-        <v>0</v>
+        <v>-114147.6</v>
       </c>
       <c r="G49" s="11">
-        <v>0</v>
+        <v>-84432.8</v>
       </c>
       <c r="H49" s="11">
         <v>0</v>
@@ -5730,10 +5730,10 @@
       </c>
       <c r="P49" s="6"/>
       <c r="Q49" s="6">
-        <v>-83776</v>
-      </c>
-    </row>
-    <row r="50" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-408561.39999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="71"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
@@ -5750,21 +5750,21 @@
       <c r="P50" s="6"/>
       <c r="Q50" s="8"/>
     </row>
-    <row r="51" spans="2:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B51" s="86" t="s">
         <v>200</v>
       </c>
       <c r="D51" s="11">
-        <v>16949546.199999999</v>
+        <v>17024939.199999996</v>
       </c>
       <c r="E51" s="11">
-        <v>0</v>
+        <v>15657965.999999998</v>
       </c>
       <c r="F51" s="11">
-        <v>0</v>
+        <v>16094480.699999999</v>
       </c>
       <c r="G51" s="11">
-        <v>0</v>
+        <v>14144024.699999999</v>
       </c>
       <c r="H51" s="11">
         <v>0</v>
@@ -5792,12 +5792,12 @@
       </c>
       <c r="P51" s="6"/>
       <c r="Q51" s="6">
-        <v>16949546.199999999</v>
-      </c>
-    </row>
-    <row r="52" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62921410.599999994</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="93" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="2"/>
@@ -5817,7 +5817,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="69"/>
       <c r="C53" s="4"/>
       <c r="D53" s="3" t="s">
@@ -5861,7 +5861,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="72" t="s">
         <v>37</v>
       </c>
@@ -5881,7 +5881,7 @@
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="71" t="s">
         <v>34</v>
       </c>
@@ -5900,7 +5900,7 @@
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="73" t="s">
         <v>26</v>
       </c>
@@ -5909,13 +5909,13 @@
         <v>691255.3</v>
       </c>
       <c r="E56" s="11">
-        <v>0</v>
+        <v>780324.3</v>
       </c>
       <c r="F56" s="11">
-        <v>0</v>
+        <v>545521.30000000005</v>
       </c>
       <c r="G56" s="11">
-        <v>0</v>
+        <v>331845.90000000002</v>
       </c>
       <c r="H56" s="11">
         <v>0</v>
@@ -5943,25 +5943,25 @@
       </c>
       <c r="P56" s="6"/>
       <c r="Q56" s="6">
-        <v>691255.3</v>
-      </c>
-    </row>
-    <row r="57" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>2348946.8000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="73" t="s">
         <v>27</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="11">
-        <v>491102.5</v>
+        <v>491297.1</v>
       </c>
       <c r="E57" s="11">
-        <v>0</v>
+        <v>552087.9</v>
       </c>
       <c r="F57" s="11">
-        <v>0</v>
+        <v>408682.2</v>
       </c>
       <c r="G57" s="11">
-        <v>0</v>
+        <v>250234.7</v>
       </c>
       <c r="H57" s="11">
         <v>0</v>
@@ -5989,10 +5989,10 @@
       </c>
       <c r="P57" s="6"/>
       <c r="Q57" s="6">
-        <v>491102.5</v>
-      </c>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
+        <v>1702301.9</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="73" t="s">
         <v>59</v>
       </c>
@@ -6001,13 +6001,13 @@
         <v>1322602.1000000001</v>
       </c>
       <c r="E58" s="11">
-        <v>0</v>
+        <v>1238110.2</v>
       </c>
       <c r="F58" s="11">
-        <v>0</v>
+        <v>1298057.6000000001</v>
       </c>
       <c r="G58" s="11">
-        <v>0</v>
+        <v>1065127.2</v>
       </c>
       <c r="H58" s="11">
         <v>0</v>
@@ -6035,10 +6035,10 @@
       </c>
       <c r="P58" s="6"/>
       <c r="Q58" s="6">
-        <v>1322602.1000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
+        <v>4923897.0999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" s="73"/>
       <c r="C59" s="15"/>
       <c r="D59" s="11"/>
@@ -6056,22 +6056,22 @@
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" s="73" t="s">
         <v>53</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="11">
-        <v>11220.5</v>
+        <v>12158.5</v>
       </c>
       <c r="E60" s="11">
-        <v>0</v>
+        <v>15144.9</v>
       </c>
       <c r="F60" s="11">
-        <v>0</v>
+        <v>12320.6</v>
       </c>
       <c r="G60" s="11">
-        <v>0</v>
+        <v>9826.5</v>
       </c>
       <c r="H60" s="11">
         <v>0</v>
@@ -6099,10 +6099,10 @@
       </c>
       <c r="P60" s="6"/>
       <c r="Q60" s="6">
-        <v>11220.5</v>
-      </c>
-    </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
+        <v>49450.5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" s="73" t="s">
         <v>71</v>
       </c>
@@ -6111,13 +6111,13 @@
         <v>257611.6</v>
       </c>
       <c r="E61" s="11">
-        <v>0</v>
+        <v>237560.7</v>
       </c>
       <c r="F61" s="11">
-        <v>0</v>
+        <v>245494.8</v>
       </c>
       <c r="G61" s="11">
-        <v>0</v>
+        <v>230397.4</v>
       </c>
       <c r="H61" s="11">
         <v>0</v>
@@ -6145,10 +6145,10 @@
       </c>
       <c r="P61" s="6"/>
       <c r="Q61" s="6">
-        <v>257611.6</v>
-      </c>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
+        <v>971064.50000000012</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" s="73"/>
       <c r="C62" s="13"/>
       <c r="D62" s="11"/>
@@ -6166,7 +6166,7 @@
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" s="73" t="s">
         <v>72</v>
       </c>
@@ -6186,22 +6186,22 @@
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="76" t="s">
         <v>41</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="11">
-        <v>75048.3</v>
+        <v>75047.600000000006</v>
       </c>
       <c r="E64" s="11">
-        <v>0</v>
+        <v>69389.899999999994</v>
       </c>
       <c r="F64" s="11">
-        <v>0</v>
+        <v>96493.5</v>
       </c>
       <c r="G64" s="11">
-        <v>0</v>
+        <v>86541.1</v>
       </c>
       <c r="H64" s="11">
         <v>0</v>
@@ -6229,10 +6229,10 @@
       </c>
       <c r="P64" s="6"/>
       <c r="Q64" s="6">
-        <v>75048.3</v>
-      </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
+        <v>327472.09999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" s="76" t="s">
         <v>42</v>
       </c>
@@ -6241,13 +6241,13 @@
         <v>658.9</v>
       </c>
       <c r="E65" s="11">
-        <v>0</v>
+        <v>386.2</v>
       </c>
       <c r="F65" s="11">
-        <v>0</v>
+        <v>811</v>
       </c>
       <c r="G65" s="11">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="H65" s="11">
         <v>0</v>
@@ -6275,10 +6275,10 @@
       </c>
       <c r="P65" s="6"/>
       <c r="Q65" s="6">
-        <v>658.9</v>
-      </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.3">
+        <v>2035.1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66" s="76" t="s">
         <v>44</v>
       </c>
@@ -6287,13 +6287,13 @@
         <v>51010.7</v>
       </c>
       <c r="E66" s="11">
-        <v>0</v>
+        <v>45524.2</v>
       </c>
       <c r="F66" s="11">
-        <v>0</v>
+        <v>50173.599999999999</v>
       </c>
       <c r="G66" s="11">
-        <v>0</v>
+        <v>46083.4</v>
       </c>
       <c r="H66" s="11">
         <v>0</v>
@@ -6321,10 +6321,10 @@
       </c>
       <c r="P66" s="6"/>
       <c r="Q66" s="6">
-        <v>51010.7</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
+        <v>192791.9</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" s="76" t="s">
         <v>43</v>
       </c>
@@ -6333,13 +6333,13 @@
         <v>259983.6</v>
       </c>
       <c r="E67" s="9">
-        <v>0</v>
+        <v>238238.1</v>
       </c>
       <c r="F67" s="9">
-        <v>0</v>
+        <v>274520</v>
       </c>
       <c r="G67" s="9">
-        <v>0</v>
+        <v>238031.8</v>
       </c>
       <c r="H67" s="9">
         <v>0</v>
@@ -6367,25 +6367,25 @@
       </c>
       <c r="P67" s="6"/>
       <c r="Q67" s="7">
-        <v>259983.6</v>
-      </c>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
+        <v>1010773.5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68" s="73" t="s">
         <v>52</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="11">
-        <v>386701.5</v>
+        <v>386700.79999999999</v>
       </c>
       <c r="E68" s="11">
-        <v>0</v>
+        <v>353538.4</v>
       </c>
       <c r="F68" s="11">
-        <v>0</v>
+        <v>421998.1</v>
       </c>
       <c r="G68" s="11">
-        <v>0</v>
+        <v>370835.3</v>
       </c>
       <c r="H68" s="11">
         <v>0</v>
@@ -6413,10 +6413,10 @@
       </c>
       <c r="P68" s="6"/>
       <c r="Q68" s="11">
-        <v>386701.5</v>
-      </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
+        <v>1533072.6</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" s="77"/>
       <c r="C69" s="13"/>
       <c r="D69" s="11"/>
@@ -6434,7 +6434,7 @@
       <c r="P69" s="6"/>
       <c r="Q69" s="11"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="73" t="s">
         <v>62</v>
       </c>
@@ -6454,22 +6454,22 @@
       <c r="P70" s="6"/>
       <c r="Q70" s="6"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="76" t="s">
         <v>61</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="11">
-        <v>294362.2</v>
+        <v>294362.3</v>
       </c>
       <c r="E71" s="11">
-        <v>0</v>
+        <v>237831.2</v>
       </c>
       <c r="F71" s="11">
-        <v>0</v>
+        <v>306979</v>
       </c>
       <c r="G71" s="11">
-        <v>0</v>
+        <v>266593.59999999998</v>
       </c>
       <c r="H71" s="11">
         <v>0</v>
@@ -6497,10 +6497,10 @@
       </c>
       <c r="P71" s="6"/>
       <c r="Q71" s="6">
-        <v>294362.2</v>
-      </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
+        <v>1105766.1000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" s="76" t="s">
         <v>38</v>
       </c>
@@ -6509,13 +6509,13 @@
         <v>5855.3</v>
       </c>
       <c r="E72" s="11">
-        <v>0</v>
+        <v>5423.6</v>
       </c>
       <c r="F72" s="11">
-        <v>0</v>
+        <v>5656.3</v>
       </c>
       <c r="G72" s="11">
-        <v>0</v>
+        <v>7692.4</v>
       </c>
       <c r="H72" s="11">
         <v>0</v>
@@ -6543,25 +6543,25 @@
       </c>
       <c r="P72" s="6"/>
       <c r="Q72" s="6">
-        <v>5855.3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
+        <v>24627.599999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73" s="76" t="s">
         <v>39</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="11">
-        <v>1804672.6</v>
+        <v>1804706.5</v>
       </c>
       <c r="E73" s="11">
-        <v>0</v>
+        <v>1606224.1</v>
       </c>
       <c r="F73" s="11">
-        <v>0</v>
+        <v>1751567.4</v>
       </c>
       <c r="G73" s="11">
-        <v>0</v>
+        <v>1639470.7</v>
       </c>
       <c r="H73" s="11">
         <v>0</v>
@@ -6589,25 +6589,25 @@
       </c>
       <c r="P73" s="6"/>
       <c r="Q73" s="6">
-        <v>1804672.6</v>
-      </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
+        <v>6801968.7000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74" s="76" t="s">
         <v>40</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="9">
-        <v>96.4</v>
+        <v>88.9</v>
       </c>
       <c r="E74" s="9">
-        <v>0</v>
+        <v>84.3</v>
       </c>
       <c r="F74" s="9">
-        <v>0</v>
+        <v>90.2</v>
       </c>
       <c r="G74" s="9">
-        <v>0</v>
+        <v>182.6</v>
       </c>
       <c r="H74" s="9">
         <v>0</v>
@@ -6635,25 +6635,25 @@
       </c>
       <c r="P74" s="6"/>
       <c r="Q74" s="7">
-        <v>96.4</v>
-      </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75" s="73" t="s">
         <v>63</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="11">
-        <v>2104986.5</v>
+        <v>2105013</v>
       </c>
       <c r="E75" s="11">
-        <v>0</v>
+        <v>1849563.2000000002</v>
       </c>
       <c r="F75" s="11">
-        <v>0</v>
+        <v>2064292.9</v>
       </c>
       <c r="G75" s="11">
-        <v>0</v>
+        <v>1913939.3</v>
       </c>
       <c r="H75" s="11">
         <v>0</v>
@@ -6681,10 +6681,10 @@
       </c>
       <c r="P75" s="6"/>
       <c r="Q75" s="11">
-        <v>2104986.5</v>
-      </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
+        <v>7932808.4000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" s="77"/>
       <c r="C76" s="13"/>
       <c r="D76" s="11"/>
@@ -6702,7 +6702,7 @@
       <c r="P76" s="6"/>
       <c r="Q76" s="11"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="73" t="s">
         <v>64</v>
       </c>
@@ -6722,22 +6722,22 @@
       <c r="P77" s="6"/>
       <c r="Q77" s="6"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="76" t="s">
         <v>38</v>
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="11">
-        <v>46760.800000000003</v>
+        <v>46803.5</v>
       </c>
       <c r="E78" s="11">
-        <v>0</v>
+        <v>32567.3</v>
       </c>
       <c r="F78" s="11">
-        <v>0</v>
+        <v>37004.699999999997</v>
       </c>
       <c r="G78" s="11">
-        <v>0</v>
+        <v>52972.2</v>
       </c>
       <c r="H78" s="11">
         <v>0</v>
@@ -6765,25 +6765,25 @@
       </c>
       <c r="P78" s="6"/>
       <c r="Q78" s="6">
-        <v>46760.800000000003</v>
-      </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.3">
+        <v>169347.7</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B79" s="76" t="s">
         <v>39</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="11">
-        <v>944162.1</v>
+        <v>1035404.5</v>
       </c>
       <c r="E79" s="11">
-        <v>0</v>
+        <v>931943.8</v>
       </c>
       <c r="F79" s="11">
-        <v>0</v>
+        <v>1015053.3</v>
       </c>
       <c r="G79" s="11">
-        <v>0</v>
+        <v>866767.3</v>
       </c>
       <c r="H79" s="11">
         <v>0</v>
@@ -6811,10 +6811,10 @@
       </c>
       <c r="P79" s="6"/>
       <c r="Q79" s="6">
-        <v>944162.1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
+        <v>3849168.9000000004</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80" s="76" t="s">
         <v>66</v>
       </c>
@@ -6823,13 +6823,13 @@
         <v>81599.7</v>
       </c>
       <c r="E80" s="9">
-        <v>0</v>
+        <v>76666.5</v>
       </c>
       <c r="F80" s="9">
-        <v>0</v>
+        <v>81872.899999999994</v>
       </c>
       <c r="G80" s="9">
-        <v>0</v>
+        <v>55448.4</v>
       </c>
       <c r="H80" s="9">
         <v>0</v>
@@ -6857,25 +6857,25 @@
       </c>
       <c r="P80" s="6"/>
       <c r="Q80" s="7">
-        <v>81599.7</v>
-      </c>
-    </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.3">
+        <v>295587.5</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B81" s="73" t="s">
         <v>65</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="23">
-        <v>1072522.6000000001</v>
+        <v>1163807.7</v>
       </c>
       <c r="E81" s="23">
-        <v>0</v>
+        <v>1041177.6000000001</v>
       </c>
       <c r="F81" s="23">
-        <v>0</v>
+        <v>1133930.8999999999</v>
       </c>
       <c r="G81" s="23">
-        <v>0</v>
+        <v>975187.9</v>
       </c>
       <c r="H81" s="23">
         <v>0</v>
@@ -6903,10 +6903,10 @@
       </c>
       <c r="P81" s="6"/>
       <c r="Q81" s="23">
-        <v>1072522.6000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4314104.1000000006</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="77"/>
       <c r="C82" s="13"/>
       <c r="D82" s="19"/>
@@ -6924,22 +6924,22 @@
       <c r="P82" s="8"/>
       <c r="Q82" s="19"/>
     </row>
-    <row r="83" spans="2:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B83" s="74" t="s">
         <v>35</v>
       </c>
       <c r="C83" s="14"/>
       <c r="D83" s="11">
-        <v>6338002.5999999996</v>
+        <v>6430446.1000000006</v>
       </c>
       <c r="E83" s="11">
-        <v>0</v>
+        <v>6067507.1999999993</v>
       </c>
       <c r="F83" s="11">
-        <v>0</v>
+        <v>6130298.4000000004</v>
       </c>
       <c r="G83" s="11">
-        <v>0</v>
+        <v>5147394.2</v>
       </c>
       <c r="H83" s="11">
         <v>0</v>
@@ -6967,10 +6967,10 @@
       </c>
       <c r="P83" s="6"/>
       <c r="Q83" s="11">
-        <v>6338002.5999999996</v>
-      </c>
-    </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.3">
+        <v>23775645.900000002</v>
+      </c>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B84" s="78"/>
       <c r="C84" s="14"/>
       <c r="D84" s="11"/>
@@ -6988,7 +6988,7 @@
       <c r="P84" s="6"/>
       <c r="Q84" s="11"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B85" s="71" t="s">
         <v>171</v>
       </c>
@@ -7007,22 +7007,22 @@
       <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B86" s="73" t="s">
         <v>5</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="11">
-        <v>1069741.96</v>
+        <v>919030.74</v>
       </c>
       <c r="E86" s="11">
-        <v>0</v>
+        <v>885391.34</v>
       </c>
       <c r="F86" s="11">
-        <v>0</v>
+        <v>909875.07</v>
       </c>
       <c r="G86" s="11">
-        <v>0</v>
+        <v>1025040.03</v>
       </c>
       <c r="H86" s="11">
         <v>0</v>
@@ -7050,25 +7050,25 @@
       </c>
       <c r="P86" s="6"/>
       <c r="Q86" s="97">
-        <v>1069741.96</v>
-      </c>
-    </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.3">
+        <v>3739337.1799999997</v>
+      </c>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B87" s="73" t="s">
         <v>0</v>
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="11">
-        <v>2363968.7200000002</v>
+        <v>1972805.41</v>
       </c>
       <c r="E87" s="11">
-        <v>0</v>
+        <v>1595411.37</v>
       </c>
       <c r="F87" s="11">
-        <v>0</v>
+        <v>1752518.07</v>
       </c>
       <c r="G87" s="11">
-        <v>0</v>
+        <v>2031525.17</v>
       </c>
       <c r="H87" s="11">
         <v>0</v>
@@ -7096,25 +7096,25 @@
       </c>
       <c r="P87" s="6"/>
       <c r="Q87" s="97">
-        <v>2363968.7200000002</v>
-      </c>
-    </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.3">
+        <v>7352260.0200000005</v>
+      </c>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B88" s="73" t="s">
         <v>1</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="11">
-        <v>682269.98</v>
+        <v>518093.3</v>
       </c>
       <c r="E88" s="11">
-        <v>0</v>
+        <v>674616.53</v>
       </c>
       <c r="F88" s="11">
-        <v>0</v>
+        <v>488706.05</v>
       </c>
       <c r="G88" s="11">
-        <v>0</v>
+        <v>521826.78</v>
       </c>
       <c r="H88" s="11">
         <v>0</v>
@@ -7142,25 +7142,25 @@
       </c>
       <c r="P88" s="6"/>
       <c r="Q88" s="97">
-        <v>682269.98</v>
-      </c>
-    </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.3">
+        <v>2203242.66</v>
+      </c>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B89" s="73" t="s">
         <v>2</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="11">
-        <v>1591527.78</v>
+        <v>1277413.03</v>
       </c>
       <c r="E89" s="11">
-        <v>0</v>
+        <v>1261803.6200000001</v>
       </c>
       <c r="F89" s="11">
-        <v>0</v>
+        <v>1438599.38</v>
       </c>
       <c r="G89" s="11">
-        <v>0</v>
+        <v>1468046.3</v>
       </c>
       <c r="H89" s="11">
         <v>0</v>
@@ -7188,25 +7188,25 @@
       </c>
       <c r="P89" s="6"/>
       <c r="Q89" s="97">
-        <v>1591527.78</v>
-      </c>
-    </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.3">
+        <v>5445862.3300000001</v>
+      </c>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B90" s="73" t="s">
         <v>3</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="11">
-        <v>41408.68</v>
+        <v>28832.34</v>
       </c>
       <c r="E90" s="11">
-        <v>0</v>
+        <v>24607.26</v>
       </c>
       <c r="F90" s="11">
-        <v>0</v>
+        <v>19726.45</v>
       </c>
       <c r="G90" s="11">
-        <v>0</v>
+        <v>16807.95</v>
       </c>
       <c r="H90" s="11">
         <v>0</v>
@@ -7234,10 +7234,10 @@
       </c>
       <c r="P90" s="6"/>
       <c r="Q90" s="97">
-        <v>41408.68</v>
-      </c>
-    </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.3">
+        <v>89974</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B91" s="73" t="s">
         <v>4</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B92" s="73" t="s">
         <v>55</v>
       </c>
@@ -7329,22 +7329,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B93" s="74" t="s">
         <v>172</v>
       </c>
       <c r="C93" s="14"/>
       <c r="D93" s="11">
-        <v>5748917.1200000001</v>
+        <v>4716174.8199999994</v>
       </c>
       <c r="E93" s="11">
-        <v>0</v>
+        <v>4441830.12</v>
       </c>
       <c r="F93" s="11">
-        <v>0</v>
+        <v>4609425.0200000005</v>
       </c>
       <c r="G93" s="11">
-        <v>0</v>
+        <v>5063246.2300000004</v>
       </c>
       <c r="H93" s="11">
         <v>0</v>
@@ -7372,10 +7372,10 @@
       </c>
       <c r="P93" s="6"/>
       <c r="Q93" s="65">
-        <v>5748917.1200000001</v>
-      </c>
-    </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.3">
+        <v>18830676.189999998</v>
+      </c>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B94" s="78"/>
       <c r="C94" s="14"/>
       <c r="D94" s="11"/>
@@ -7393,7 +7393,7 @@
       <c r="P94" s="6"/>
       <c r="Q94" s="65"/>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B95" s="79" t="s">
         <v>173</v>
       </c>
@@ -7413,22 +7413,22 @@
       <c r="P95" s="6"/>
       <c r="Q95" s="97"/>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B96" s="80" t="s">
         <v>28</v>
       </c>
       <c r="C96" s="16"/>
       <c r="D96" s="11">
-        <v>72996.240000000005</v>
+        <v>66561.460000000006</v>
       </c>
       <c r="E96" s="11">
-        <v>0</v>
+        <v>20813.71</v>
       </c>
       <c r="F96" s="11">
-        <v>0</v>
+        <v>62863.76</v>
       </c>
       <c r="G96" s="11">
-        <v>0</v>
+        <v>50904.74</v>
       </c>
       <c r="H96" s="11">
         <v>0</v>
@@ -7456,25 +7456,25 @@
       </c>
       <c r="P96" s="6"/>
       <c r="Q96" s="97">
-        <v>72996.240000000005</v>
-      </c>
-    </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.3">
+        <v>201143.67</v>
+      </c>
+    </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B97" s="80" t="s">
         <v>29</v>
       </c>
       <c r="C97" s="16"/>
       <c r="D97" s="11">
-        <v>1783435.1</v>
+        <v>2418574.59</v>
       </c>
       <c r="E97" s="11">
-        <v>0</v>
+        <v>2410994.75</v>
       </c>
       <c r="F97" s="11">
-        <v>0</v>
+        <v>2241920.7000000002</v>
       </c>
       <c r="G97" s="11">
-        <v>0</v>
+        <v>1238166.8999999999</v>
       </c>
       <c r="H97" s="11">
         <v>0</v>
@@ -7502,25 +7502,25 @@
       </c>
       <c r="P97" s="6"/>
       <c r="Q97" s="97">
-        <v>1783435.1</v>
-      </c>
-    </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.3">
+        <v>8309656.9399999995</v>
+      </c>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B98" s="80" t="s">
         <v>30</v>
       </c>
       <c r="C98" s="16"/>
       <c r="D98" s="11">
-        <v>201799.54</v>
+        <v>140446.54999999999</v>
       </c>
       <c r="E98" s="11">
-        <v>0</v>
+        <v>123976.21</v>
       </c>
       <c r="F98" s="11">
-        <v>0</v>
+        <v>140770.10999999999</v>
       </c>
       <c r="G98" s="11">
-        <v>0</v>
+        <v>171232.91</v>
       </c>
       <c r="H98" s="11">
         <v>0</v>
@@ -7548,25 +7548,25 @@
       </c>
       <c r="P98" s="6"/>
       <c r="Q98" s="97">
-        <v>201799.54</v>
-      </c>
-    </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.3">
+        <v>576425.78</v>
+      </c>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B99" s="80" t="s">
         <v>31</v>
       </c>
       <c r="C99" s="16"/>
       <c r="D99" s="11">
-        <v>469840.52</v>
+        <v>335580.33</v>
       </c>
       <c r="E99" s="11">
-        <v>0</v>
+        <v>371810.08</v>
       </c>
       <c r="F99" s="11">
-        <v>0</v>
+        <v>268488.07</v>
       </c>
       <c r="G99" s="11">
-        <v>0</v>
+        <v>368205.95</v>
       </c>
       <c r="H99" s="11">
         <v>0</v>
@@ -7594,25 +7594,25 @@
       </c>
       <c r="P99" s="6"/>
       <c r="Q99" s="97">
-        <v>469840.52</v>
-      </c>
-    </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.3">
+        <v>1344084.43</v>
+      </c>
+    </row>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B100" s="80" t="s">
         <v>32</v>
       </c>
       <c r="C100" s="16"/>
       <c r="D100" s="9">
-        <v>646211.81000000006</v>
+        <v>1245869.8799999999</v>
       </c>
       <c r="E100" s="9">
-        <v>0</v>
+        <v>1128123.3799999999</v>
       </c>
       <c r="F100" s="9">
-        <v>0</v>
+        <v>1180774.94</v>
       </c>
       <c r="G100" s="9">
-        <v>0</v>
+        <v>1020633.3</v>
       </c>
       <c r="H100" s="9">
         <v>0</v>
@@ -7640,25 +7640,25 @@
       </c>
       <c r="P100" s="6"/>
       <c r="Q100" s="98">
-        <v>646211.81000000006</v>
-      </c>
-    </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.3">
+        <v>4575401.5</v>
+      </c>
+    </row>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B101" s="81" t="s">
         <v>174</v>
       </c>
       <c r="C101" s="12"/>
       <c r="D101" s="23">
-        <v>3174283.2100000004</v>
+        <v>4207032.8099999996</v>
       </c>
       <c r="E101" s="23">
-        <v>0</v>
+        <v>4055718.13</v>
       </c>
       <c r="F101" s="23">
-        <v>0</v>
+        <v>3894817.5799999996</v>
       </c>
       <c r="G101" s="23">
-        <v>0</v>
+        <v>2849143.8</v>
       </c>
       <c r="H101" s="23">
         <v>0</v>
@@ -7686,10 +7686,10 @@
       </c>
       <c r="P101" s="6"/>
       <c r="Q101" s="94">
-        <v>3174283.2100000004</v>
-      </c>
-    </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.3">
+        <v>15006712.32</v>
+      </c>
+    </row>
+    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B102" s="82"/>
       <c r="C102" s="12"/>
       <c r="D102" s="11"/>
@@ -7707,7 +7707,7 @@
       <c r="P102" s="6"/>
       <c r="Q102" s="65"/>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B103" s="81" t="s">
         <v>170</v>
       </c>
@@ -7753,9 +7753,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="93" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C104" s="20"/>
       <c r="D104" s="2"/>
@@ -7775,7 +7775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="69"/>
       <c r="C105" s="4"/>
       <c r="D105" s="3" t="s">
@@ -7819,7 +7819,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="106" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="69"/>
       <c r="C106" s="4"/>
       <c r="D106" s="61"/>
@@ -7837,22 +7837,22 @@
       <c r="P106" s="61"/>
       <c r="Q106" s="61"/>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B107" s="79" t="s">
         <v>165</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="11">
-        <v>8923200.3300000001</v>
+        <v>8923207.629999999</v>
       </c>
       <c r="E107" s="11">
-        <v>0</v>
+        <v>8497548.25</v>
       </c>
       <c r="F107" s="11">
-        <v>0</v>
+        <v>8504242.5999999996</v>
       </c>
       <c r="G107" s="11">
-        <v>0</v>
+        <v>7912390.0300000003</v>
       </c>
       <c r="H107" s="11">
         <v>0</v>
@@ -7880,24 +7880,24 @@
       </c>
       <c r="P107" s="6"/>
       <c r="Q107" s="97">
-        <v>8923200.3300000001</v>
-      </c>
-    </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.3">
+        <v>33837388.509999998</v>
+      </c>
+    </row>
+    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B108" s="83" t="s">
         <v>201</v>
       </c>
       <c r="D108" s="11">
-        <v>287845.17193548387</v>
+        <v>287845.40741935483</v>
       </c>
       <c r="E108" s="11">
-        <v>0</v>
+        <v>303483.86607142858</v>
       </c>
       <c r="F108" s="11">
-        <v>0</v>
+        <v>274330.40645161289</v>
       </c>
       <c r="G108" s="11">
-        <v>0</v>
+        <v>263746.33433333336</v>
       </c>
       <c r="H108" s="11">
         <v>0</v>
@@ -7924,10 +7924,10 @@
         <v>0</v>
       </c>
       <c r="Q108" s="99">
-        <v>287845.17193548387</v>
-      </c>
-    </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.3">
+        <v>282351.50356893241</v>
+      </c>
+    </row>
+    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B109" s="84"/>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
@@ -7943,22 +7943,22 @@
       <c r="O109" s="11"/>
       <c r="Q109" s="65"/>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B110" s="79" t="s">
         <v>6</v>
       </c>
       <c r="C110" s="10"/>
       <c r="D110" s="11">
-        <v>1688343.2699999996</v>
+        <v>1671285.4699999951</v>
       </c>
       <c r="E110" s="11">
-        <v>0</v>
+        <v>1092910.5499999989</v>
       </c>
       <c r="F110" s="11">
-        <v>0</v>
+        <v>1459939.6999999993</v>
       </c>
       <c r="G110" s="11">
-        <v>0</v>
+        <v>1084240.4699999997</v>
       </c>
       <c r="H110" s="11">
         <v>0</v>
@@ -7986,56 +7986,56 @@
       </c>
       <c r="P110" s="6"/>
       <c r="Q110" s="65">
-        <v>1688343.2699999996</v>
-      </c>
-    </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.3">
+        <v>5308376.1899999902</v>
+      </c>
+    </row>
+    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B111" s="85" t="s">
         <v>166</v>
       </c>
       <c r="C111" s="10"/>
       <c r="D111" s="21">
-        <v>9.9609939409469245E-2</v>
-      </c>
-      <c r="E111" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="F111" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="G111" s="21" t="s">
-        <v>213</v>
+        <v>9.8166898005720662E-2</v>
+      </c>
+      <c r="E111" s="21">
+        <v>6.9799011570212829E-2</v>
+      </c>
+      <c r="F111" s="21">
+        <v>9.0710581298842366E-2</v>
+      </c>
+      <c r="G111" s="21">
+        <v>7.6657139180476674E-2</v>
       </c>
       <c r="H111" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I111" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J111" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K111" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L111" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M111" s="95" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N111" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O111" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P111" s="22"/>
       <c r="Q111" s="95">
-        <v>9.9609939409469245E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>8.4365180935724135E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="71"/>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -8052,21 +8052,21 @@
       <c r="P112" s="6"/>
       <c r="Q112" s="96"/>
     </row>
-    <row r="113" spans="2:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B113" s="86" t="s">
         <v>202</v>
       </c>
       <c r="D113" s="11">
-        <v>16949546.199999999</v>
+        <v>17024939.199999996</v>
       </c>
       <c r="E113" s="11">
-        <v>0</v>
+        <v>15657965.999999998</v>
       </c>
       <c r="F113" s="11">
-        <v>0</v>
+        <v>16094480.699999999</v>
       </c>
       <c r="G113" s="11">
-        <v>0</v>
+        <v>14144024.699999999</v>
       </c>
       <c r="H113" s="11">
         <v>0</v>
@@ -8094,26 +8094,26 @@
       </c>
       <c r="P113" s="6"/>
       <c r="Q113" s="65">
-        <v>16949546.199999999</v>
-      </c>
-    </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.3">
+        <v>62921410.599999994</v>
+      </c>
+    </row>
+    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B114" s="71"/>
     </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B115" s="71"/>
     </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B116" s="87" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="117" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="87" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B118" s="87" t="s">
         <v>209</v>
       </c>
